--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,54 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parvathi.Prabhakar\OneDrive - EY\Desktop\Obsq\Projects\SeleniumOct2020\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC104813C99C76845BDE58FB" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{AD11F8C9-FD29-415E-9E0D-3864C3588B7D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20070" windowHeight="8850"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
-    <t>Username</t>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>MobileNo</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>mgr123</t>
+    <t>Test</t>
   </si>
   <si>
-    <t>mgr!23</t>
+    <t>India</t>
+  </si>
+  <si>
+    <t>testuniathena&lt;&gt;@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -56,19 +66,349 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -76,25 +416,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -143,7 +770,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -178,7 +805,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -352,43 +979,71 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="10.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="11.7142857142857"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>8136834083</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="testuniathena&lt;&gt;@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -37,7 +37,7 @@
     <t>Test</t>
   </si>
   <si>
-    <t>India</t>
+    <t>Canada</t>
   </si>
   <si>
     <t>testuniathena&lt;&gt;@gmail.com</t>
@@ -49,8 +49,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -86,45 +86,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,30 +162,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,25 +223,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,157 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,45 +414,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -504,6 +465,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -517,15 +517,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -538,127 +538,127 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -988,7 +988,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1030,7 +1030,7 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>8136834083</v>
+        <v>2898934565</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20070" windowHeight="8850"/>
+    <workbookView windowWidth="20070" windowHeight="8850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="SC003" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>FirstName</t>
   </si>
@@ -42,16 +43,25 @@
   <si>
     <t>testuniathena&lt;&gt;@gmail.com</t>
   </si>
+  <si>
+    <t>heeramohan4083@gmail.com</t>
+  </si>
+  <si>
+    <t>Heera</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -78,22 +88,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,6 +143,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -163,6 +197,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -170,22 +211,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -193,22 +218,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,25 +233,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,109 +395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,43 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,6 +424,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,15 +492,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -480,17 +507,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,29 +524,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -538,127 +548,127 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -987,8 +997,8 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1046,4 +1056,58 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="30.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="10.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="10.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="heeramohan4083@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20070" windowHeight="8850" activeTab="1"/>
+    <workbookView windowWidth="20070" windowHeight="8850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="SC003" sheetId="2" r:id="rId2"/>
+    <sheet name="SC004" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>FirstName</t>
   </si>
@@ -51,6 +52,12 @@
   </si>
   <si>
     <t>Mohan</t>
+  </si>
+  <si>
+    <t>Course name to be searched</t>
+  </si>
+  <si>
+    <t>QA_TEST</t>
   </si>
 </sst>
 </file>
@@ -58,10 +65,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -88,6 +95,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,25 +124,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,18 +156,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,45 +187,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,187 +240,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,17 +445,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,11 +508,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,15 +534,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -548,127 +555,127 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,7 +1070,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1110,4 +1117,65 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="30.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="10.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="10.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="28.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="heeramohan4083@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>FirstName</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Mohan</t>
+  </si>
+  <si>
+    <t>AthenaID</t>
   </si>
   <si>
     <t>Course name to be searched</t>
@@ -65,12 +68,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,11 +98,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF303030"/>
+      <name val="Lato"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -109,6 +112,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -116,27 +127,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,6 +167,35 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -164,24 +203,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,14 +227,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,22 +235,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,19 +250,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,163 +394,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,17 +441,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,6 +493,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -508,21 +522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -531,18 +530,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -555,134 +565,135 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1122,22 +1133,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="30.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="10.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="10.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="28.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="10.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="10.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="28.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1145,30 +1157,36 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2">
         <v>1234</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3">
+        <v>221146790</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
+      <c r="F2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
